--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_24_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_24_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35065.20584873224</v>
+        <v>6924395.999725369</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>35065.20584873224</v>
+        <v>6924395.999725369</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>18046.91682488614</v>
+        <v>1088134.101877722</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18046.91682488614</v>
+        <v>1088134.101877722</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1190340357.588495</v>
+        <v>49308360.38584133</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11537.34293436035</v>
+        <v>1279920.716282121</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21240.28471472496</v>
+        <v>2255937.922539881</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30943.22649508954</v>
+        <v>3231955.128797643</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>41083.30587018951</v>
+        <v>4165489.415062327</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>51269.89063724135</v>
+        <v>5109034.888177373</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>61370.6591275036</v>
+        <v>6060015.503425407</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>71418.83727513505</v>
+        <v>7009305.552675291</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>81461.45846979917</v>
+        <v>7959172.30482702</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>91515.80015115057</v>
+        <v>8907233.654064018</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>101572.1246590358</v>
+        <v>9855689.585781254</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>111628.4491669211</v>
+        <v>10804145.51749849</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>121675.7529864138</v>
+        <v>11752978.89106551</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>131731.647182243</v>
+        <v>12701349.19068359</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>141787.5941521922</v>
+        <v>13649805.12240084</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>151844.2961980135</v>
+        <v>14598261.05411809</v>
       </c>
     </row>
   </sheetData>
@@ -27037,25 +27037,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>276</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>13</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>825</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
